--- a/Price_month_Example.xlsx
+++ b/Price_month_Example.xlsx
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-912.5965908825001</v>
+        <v>-912.5965909999995</v>
       </c>
     </row>
     <row r="3">
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-748.1245088662931</v>
+        <v>-748.1245090000002</v>
       </c>
     </row>
     <row r="4">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-714.2549967288332</v>
+        <v>-714.254997</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-711.7044603973254</v>
+        <v>-711.7044599999999</v>
       </c>
     </row>
     <row r="6">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-710.4499296961326</v>
+        <v>-710.4499300000002</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-710.3028133226176</v>
+        <v>-710.3028130000002</v>
       </c>
     </row>
     <row r="8">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-705.9608080945341</v>
+        <v>-705.9608079999998</v>
       </c>
     </row>
     <row r="9">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-697.5852526345425</v>
+        <v>-697.5852529999997</v>
       </c>
     </row>
     <row r="10">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>-686.2218276524568</v>
+        <v>-686.2218280000002</v>
       </c>
     </row>
     <row r="11">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-684.9303628192574</v>
+        <v>-684.9303629999999</v>
       </c>
     </row>
   </sheetData>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-57.47951767463246</v>
+        <v>-57.47951699999999</v>
       </c>
     </row>
     <row r="3">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-4.714382882624477</v>
+        <v>-4.714382999999998</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>14.33864542361198</v>
+        <v>14.33864600000015</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>21.63378582487212</v>
+        <v>21.6337860000001</v>
       </c>
     </row>
     <row r="6">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>22.14839100881818</v>
+        <v>22.14839100000017</v>
       </c>
     </row>
     <row r="7">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>26.27701598208364</v>
+        <v>26.277016</v>
       </c>
     </row>
     <row r="8">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>27.05540207630315</v>
+        <v>27.05540199999996</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>28.56077371923493</v>
+        <v>28.56077300000015</v>
       </c>
     </row>
     <row r="10">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>35.33422020059652</v>
+        <v>35.33421999999996</v>
       </c>
     </row>
     <row r="11">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>39.51925716760888</v>
+        <v>39.51925799999981</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-7.145348551093548</v>
+        <v>-7.145348999999896</v>
       </c>
     </row>
     <row r="3">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.2081791405057629</v>
+        <v>-0.2081789999997454</v>
       </c>
     </row>
     <row r="4">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>20.18262380866008</v>
+        <v>20.18262400000003</v>
       </c>
     </row>
     <row r="5">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>27.18017895615208</v>
+        <v>27.18017899999995</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>27.31127005601184</v>
+        <v>27.31127000000015</v>
       </c>
     </row>
     <row r="7">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>27.65724955587484</v>
+        <v>27.65724900000009</v>
       </c>
     </row>
     <row r="8">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>37.77574515542688</v>
+        <v>37.77574600000003</v>
       </c>
     </row>
     <row r="9">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>60.85737292019712</v>
+        <v>60.85737299999982</v>
       </c>
     </row>
     <row r="10">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>61.59375428399244</v>
+        <v>61.59375499999987</v>
       </c>
     </row>
     <row r="11">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>61.80147353994198</v>
+        <v>61.80147400000033</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>6.936475954567186</v>
+        <v>6.936476000000084</v>
       </c>
     </row>
     <row r="3">
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>8.85568630253897</v>
+        <v>8.855686000000105</v>
       </c>
     </row>
     <row r="4">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>22.05747701961309</v>
+        <v>22.05747700000006</v>
       </c>
     </row>
     <row r="5">
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>34.71057858424274</v>
+        <v>34.7105789999996</v>
       </c>
     </row>
     <row r="6">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>37.12778756715738</v>
+        <v>37.1277869999999</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>41.57258102136052</v>
+        <v>41.57258100000013</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>57.50432025656005</v>
+        <v>57.50432000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>66.17291916366321</v>
+        <v>66.17291899999964</v>
       </c>
     </row>
     <row r="10">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>72.24969747213663</v>
+        <v>72.24969800000008</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>91.0109983302109</v>
+        <v>91.01099799999997</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-908.0789203775457</v>
+        <v>-908.0789199999999</v>
       </c>
     </row>
     <row r="3">
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-744.7484739584893</v>
+        <v>-744.748474</v>
       </c>
     </row>
     <row r="4">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-718.5088159213547</v>
+        <v>-718.508816</v>
       </c>
     </row>
     <row r="5">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-702.3177955615593</v>
+        <v>-702.3177949999999</v>
       </c>
     </row>
     <row r="6">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-702.1984887009307</v>
+        <v>-702.1984889999999</v>
       </c>
     </row>
     <row r="7">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-685.1685478710378</v>
+        <v>-685.1685470000002</v>
       </c>
     </row>
     <row r="8">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-674.2516686512004</v>
+        <v>-674.2516690000002</v>
       </c>
     </row>
     <row r="9">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-671.420058843169</v>
+        <v>-671.420059</v>
       </c>
     </row>
     <row r="10">
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>-666.9221146475825</v>
+        <v>-666.922114</v>
       </c>
     </row>
     <row r="11">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-649.3225527143704</v>
+        <v>-649.3225520000001</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-772.5140840533104</v>
+        <v>-772.5140840000004</v>
       </c>
     </row>
     <row r="3">
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-702.1861808778585</v>
+        <v>-702.186181</v>
       </c>
     </row>
     <row r="4">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-679.7297227737231</v>
+        <v>-679.7297229999999</v>
       </c>
     </row>
     <row r="5">
@@ -1524,7 +1524,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-677.0821700198449</v>
+        <v>-677.0821700000001</v>
       </c>
     </row>
     <row r="6">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-675.9032332241336</v>
+        <v>-675.903233</v>
       </c>
     </row>
     <row r="7">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-638.4206969910124</v>
+        <v>-638.4206969999996</v>
       </c>
     </row>
     <row r="8">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-632.3000844395797</v>
+        <v>-632.300084</v>
       </c>
     </row>
     <row r="9">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-625.0701798935374</v>
+        <v>-625.0701800000002</v>
       </c>
     </row>
     <row r="10">
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>-623.8329525984082</v>
+        <v>-623.8329519999998</v>
       </c>
     </row>
     <row r="11">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-619.995235088039</v>
+        <v>-619.9952349999999</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-613.6488680672487</v>
+        <v>-613.6488680000002</v>
       </c>
     </row>
     <row r="3">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-612.032242704533</v>
+        <v>-612.0322430000001</v>
       </c>
     </row>
     <row r="4">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-588.3366717381568</v>
+        <v>-588.3366720000004</v>
       </c>
     </row>
     <row r="5">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-561.4959435313917</v>
+        <v>-561.4959439999998</v>
       </c>
     </row>
     <row r="6">
@@ -1757,7 +1757,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-554.1710780936351</v>
+        <v>-554.1710780000003</v>
       </c>
     </row>
     <row r="7">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-550.8149536945575</v>
+        <v>-550.8149539999999</v>
       </c>
     </row>
     <row r="8">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-535.4230535291831</v>
+        <v>-535.423053</v>
       </c>
     </row>
     <row r="9">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-525.0961876384154</v>
+        <v>-525.096188</v>
       </c>
     </row>
     <row r="10">
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>-519.535689270152</v>
+        <v>-519.5356890000003</v>
       </c>
     </row>
     <row r="11">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-507.4583112160317</v>
+        <v>-507.4583109999999</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-449.5268992734914</v>
+        <v>-449.526899</v>
       </c>
     </row>
     <row r="3">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-448.0042197565576</v>
+        <v>-448.0042189999999</v>
       </c>
     </row>
     <row r="4">
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-406.5952738866818</v>
+        <v>-406.5952740000002</v>
       </c>
     </row>
     <row r="5">
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-403.8023245220434</v>
+        <v>-403.8023239999998</v>
       </c>
     </row>
     <row r="6">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-391.0841402006472</v>
+        <v>-391.0841399999999</v>
       </c>
     </row>
     <row r="7">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-379.6641083285372</v>
+        <v>-379.6641090000003</v>
       </c>
     </row>
     <row r="8">
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-365.084975744594</v>
+        <v>-365.0849760000001</v>
       </c>
     </row>
     <row r="9">
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-361.2733683630072</v>
+        <v>-361.2733679999997</v>
       </c>
     </row>
     <row r="10">
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>-360.874259424817</v>
+        <v>-360.8742589999997</v>
       </c>
     </row>
     <row r="11">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-356.9225797398299</v>
+        <v>-356.9225799999999</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-283.0579711670266</v>
+        <v>-283.0579720000001</v>
       </c>
     </row>
     <row r="3">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-268.1242791874943</v>
+        <v>-268.1242789999997</v>
       </c>
     </row>
     <row r="4">
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-256.7549974450935</v>
+        <v>-256.7549980000003</v>
       </c>
     </row>
     <row r="5">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-254.2469731638275</v>
+        <v>-254.2469729999998</v>
       </c>
     </row>
     <row r="6">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-250.5549104654419</v>
+        <v>-250.5549100000003</v>
       </c>
     </row>
     <row r="7">
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-248.5769639477417</v>
+        <v>-248.5769639999999</v>
       </c>
     </row>
     <row r="8">
@@ -2223,7 +2223,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-232.9102127212186</v>
+        <v>-232.9102130000001</v>
       </c>
     </row>
     <row r="9">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-220.360248091577</v>
+        <v>-220.3602489999998</v>
       </c>
     </row>
     <row r="10">
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>-214.9695307707939</v>
+        <v>-214.9695299999998</v>
       </c>
     </row>
     <row r="11">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-212.2208338844657</v>
+        <v>-212.2208339999997</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-151.8854502656254</v>
+        <v>-151.8854499999998</v>
       </c>
     </row>
     <row r="3">
@@ -2348,7 +2348,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-130.6360886600105</v>
+        <v>-130.6360890000001</v>
       </c>
     </row>
     <row r="4">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-123.2160395205938</v>
+        <v>-123.2160400000002</v>
       </c>
     </row>
     <row r="5">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-121.4567290629593</v>
+        <v>-121.4567299999999</v>
       </c>
     </row>
     <row r="6">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-115.7032360407661</v>
+        <v>-115.7032360000003</v>
       </c>
     </row>
     <row r="7">
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-106.3526149933546</v>
+        <v>-106.3526149999998</v>
       </c>
     </row>
     <row r="8">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-106.3212305192819</v>
+        <v>-106.32123</v>
       </c>
     </row>
     <row r="9">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-106.1274018884351</v>
+        <v>-106.1274010000002</v>
       </c>
     </row>
     <row r="10">
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>-100.5526301274258</v>
+        <v>-100.5526300000001</v>
       </c>
     </row>
     <row r="11">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-97.08146626619214</v>
+        <v>-97.08146600000009</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2545,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-73.83668398904229</v>
+        <v>-73.8366840000001</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-67.01148324105952</v>
+        <v>-67.011483</v>
       </c>
     </row>
     <row r="4">
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-63.50060819087412</v>
+        <v>-63.50060799999983</v>
       </c>
     </row>
     <row r="5">
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-60.3549948222319</v>
+        <v>-60.35499499999992</v>
       </c>
     </row>
     <row r="6">
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-57.3350595821762</v>
+        <v>-57.33506000000034</v>
       </c>
     </row>
     <row r="7">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-56.35753263426977</v>
+        <v>-56.35753200000045</v>
       </c>
     </row>
     <row r="8">
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-40.8937993574541</v>
+        <v>-40.89379999999983</v>
       </c>
     </row>
     <row r="9">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>-40.22414787842354</v>
+        <v>-40.22414800000024</v>
       </c>
     </row>
     <row r="10">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>-39.39664166230477</v>
+        <v>-39.39664200000016</v>
       </c>
     </row>
     <row r="11">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>-30.58400232470149</v>
+        <v>-30.58400200000005</v>
       </c>
     </row>
   </sheetData>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="D2">
-        <v>-73.95214976627403</v>
+        <v>-73.95214999999985</v>
       </c>
     </row>
     <row r="3">
@@ -2778,7 +2778,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-41.11791232673272</v>
+        <v>-41.11791200000016</v>
       </c>
     </row>
     <row r="4">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-30.7767856702676</v>
+        <v>-30.7767859999999</v>
       </c>
     </row>
     <row r="5">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>-28.42679704858233</v>
+        <v>-28.42679700000008</v>
       </c>
     </row>
     <row r="6">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D6">
-        <v>-10.76694611399216</v>
+        <v>-10.76694699999985</v>
       </c>
     </row>
     <row r="7">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>-8.238521361634412</v>
+        <v>-8.238521999999875</v>
       </c>
     </row>
     <row r="8">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-1.254775817050813</v>
+        <v>-1.254775999999765</v>
       </c>
     </row>
     <row r="9">
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>1.395768286703969</v>
+        <v>1.395768000000089</v>
       </c>
     </row>
     <row r="10">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="D10">
-        <v>4.600174901787341</v>
+        <v>4.600175000000036</v>
       </c>
     </row>
     <row r="11">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="D11">
-        <v>14.03778500503836</v>
+        <v>14.03778499999999</v>
       </c>
     </row>
   </sheetData>
